--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2272302.61749909</v>
+        <v>2270415.035982688</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>312.7156704160139</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,13 +707,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>157.9760822845539</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52.10844059186277</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -835,7 +835,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>208.997829469025</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>133.5750681107314</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>160.4034471042929</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.6638564154457</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>49.92693022021956</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>15.14483238681421</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>181.1611956319094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417132</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.8782988391484</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>217.9981815644958</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>233.7521884968426</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1895,10 +1895,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985774</v>
+        <v>197.7374713145462</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056511</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>114.9309043193589</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750022</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>228.6494705232576</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2713,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>70.98684734308382</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>194.8026695426852</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965503</v>
+        <v>93.4122163896554</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801184</v>
+        <v>91.23070601801221</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437429</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389788</v>
+        <v>93.71057173897917</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571504</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523546</v>
+        <v>54.76109577523584</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298319</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.03409577002</v>
+        <v>158.7241655855849</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>125.2149349343791</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692943</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463134</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224538</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463134</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>902.4179758042681</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C2" t="n">
-        <v>902.4179758042681</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>544.1522771975176</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>544.1522771975176</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>537.2067764483141</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>523.2833723869051</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2482.548601261287</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2151.485713917717</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2151.485713917717</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1778.019955656637</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>517.0200655508536</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E4" t="n">
-        <v>517.0200655508536</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1469.273141255051</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C5" t="n">
-        <v>1100.31062431464</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>742.0449257078892</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>356.256673109645</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,13 +4580,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2085.284562891219</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2085.284562891219</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.412473230863</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="Y5" t="n">
-        <v>1469.273141255051</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>677.697741559748</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C7" t="n">
-        <v>677.697741559748</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>527.5811021474123</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>677.697741559748</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>677.697741559748</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>677.697741559748</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>677.697741559748</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>677.697741559748</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W7" t="n">
-        <v>677.697741559748</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X7" t="n">
-        <v>677.697741559748</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y7" t="n">
-        <v>677.697741559748</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2681.851280526491</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.788393182921</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4878,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5033,58 +5033,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2013.406634128705</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2292.946699347402</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>843.8929204411536</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>674.9567375132467</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>524.8400981009108</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="U13" t="n">
-        <v>1071.882471339171</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="V13" t="n">
-        <v>1071.882471339171</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W13" t="n">
-        <v>1071.882471339171</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X13" t="n">
-        <v>843.8929204411536</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y13" t="n">
-        <v>843.8929204411536</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5300,22 +5300,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2013.406634128705</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>377.6878657662454</v>
+        <v>358.8683222506739</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>358.8683222506739</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1278.716087159422</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1278.716087159422</v>
       </c>
       <c r="W16" t="n">
-        <v>1008.118460638033</v>
+        <v>989.2989171224611</v>
       </c>
       <c r="X16" t="n">
-        <v>780.1289097400154</v>
+        <v>761.3093662244438</v>
       </c>
       <c r="Y16" t="n">
-        <v>559.3363305964851</v>
+        <v>540.5167870809137</v>
       </c>
     </row>
     <row r="17">
@@ -5510,37 +5510,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1299.18145104826</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706317</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336708</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>727.6476863320731</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905257</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>880.8106280646855</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.130761344647</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.497233179936</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557901</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387593</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011509</v>
+        <v>898.7925182488387</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>667.833457114235</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>667.833457114235</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>667.833457114235</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>447.0408779707049</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,34 +6209,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.1301850426791</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C28" t="n">
-        <v>245.1301850426791</v>
+        <v>337.0962993456004</v>
       </c>
       <c r="D28" t="n">
-        <v>245.1301850426791</v>
+        <v>337.0962993456004</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>337.0962993456004</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6397,7 +6397,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1302.145897282463</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1078.360482071968</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>789.2318432855266</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>534.5473550796397</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>245.1301850426791</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>245.1301850426791</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>245.1301850426791</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,19 +6461,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,25 +6488,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.9720111083025</v>
+        <v>638.4603630227175</v>
       </c>
       <c r="C31" t="n">
-        <v>490.7966934617666</v>
+        <v>525.285045376181</v>
       </c>
       <c r="D31" t="n">
-        <v>396.4409193308019</v>
+        <v>430.9292712452159</v>
       </c>
       <c r="E31" t="n">
-        <v>304.2886910297798</v>
+        <v>338.7770429441935</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297798</v>
+        <v>247.6479607276538</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309715</v>
+        <v>247.6479607276538</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.0876362933498</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667504</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962062</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899273</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167073</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662003</v>
+        <v>1408.30069018163</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737487</v>
+        <v>1209.377067257114</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818973</v>
+        <v>975.7207625015236</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365251</v>
+        <v>803.492076884877</v>
       </c>
       <c r="Y31" t="n">
-        <v>603.9720111083025</v>
+        <v>638.4603630227175</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108341</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229682</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506735</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,10 +6856,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859418</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045217</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010326</v>
       </c>
     </row>
     <row r="35">
@@ -6914,67 +6914,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7160,49 +7160,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649689</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,43 +7397,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,40 +7658,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>38.86002301949836</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711639</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>38.86002301949833</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735866</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.0374492781462</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>85.30006332127806</v>
+        <v>180.0237016735865</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>85.30006332127806</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>85.30006332127806</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>85.30006332127806</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>42.08221638637283</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>171.359053559429</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985774</v>
+        <v>68.23917083408159</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>52.77080983974835</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>88.49988108403113</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338608</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>171.3064480792185</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338713</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>23.4881728005704</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>74.43420067984742</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>3.118140440918069</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437392</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571465</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>72.30993018443552</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.16646178915842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>875713.3023213624</v>
+        <v>875713.3023213621</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327928</v>
       </c>
       <c r="F2" t="n">
         <v>547440.6836327926</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327927</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327928</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="K2" t="n">
-        <v>569550.9922833785</v>
+        <v>569550.9922833786</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049977</v>
+        <v>574729.2389049974</v>
       </c>
       <c r="M2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049975</v>
+        <v>574729.2389049976</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049976</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049979</v>
+        <v>574729.2389049988</v>
       </c>
     </row>
     <row r="3">
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284588</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086665</v>
+        <v>10342.90680086696</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284592</v>
+        <v>44162.60530284554</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687062</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.6075868707</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="J4" t="n">
-        <v>22174.60758687068</v>
-      </c>
       <c r="K4" t="n">
-        <v>40339.23010106733</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.39482819117</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="M4" t="n">
-        <v>44593.3948281912</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819117</v>
-      </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26485,7 +26485,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-263730.5861594793</v>
+        <v>-263730.5861594796</v>
       </c>
       <c r="C6" t="n">
-        <v>326237.2930550652</v>
+        <v>326237.293055065</v>
       </c>
       <c r="D6" t="n">
-        <v>326237.2930550648</v>
+        <v>326237.2930550647</v>
       </c>
       <c r="E6" t="n">
-        <v>-91881.28637969097</v>
+        <v>-91978.74550566287</v>
       </c>
       <c r="F6" t="n">
-        <v>433278.7500972053</v>
+        <v>433181.2909712331</v>
       </c>
       <c r="G6" t="n">
-        <v>433278.7500972048</v>
+        <v>433181.2909712332</v>
       </c>
       <c r="H6" t="n">
-        <v>433278.7500972052</v>
+        <v>433181.2909712333</v>
       </c>
       <c r="I6" t="n">
-        <v>433278.7500972052</v>
+        <v>433181.290971233</v>
       </c>
       <c r="J6" t="n">
-        <v>256855.5309046121</v>
+        <v>256758.0717786401</v>
       </c>
       <c r="K6" t="n">
-        <v>388420.9483492425</v>
+        <v>388402.4546113087</v>
       </c>
       <c r="L6" t="n">
-        <v>422077.8314559145</v>
+        <v>422077.8314559138</v>
       </c>
       <c r="M6" t="n">
-        <v>297619.7230229448</v>
+        <v>297619.7230229445</v>
       </c>
       <c r="N6" t="n">
         <v>432420.738256781</v>
       </c>
       <c r="O6" t="n">
-        <v>432420.738256782</v>
+        <v>432420.7382567809</v>
       </c>
       <c r="P6" t="n">
-        <v>388258.1329539354</v>
+        <v>388258.1329539366</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964061</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541004</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108331</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285574</v>
+        <v>55.20325662855693</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11.2071023483432</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>93.24808522373536</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634958</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>3.147709480993882</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>273.30097763098</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>90.82072040399638</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831821</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>96.73826175993827</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>236.0793351214751</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.0767430241442</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.386321975021722e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28615,10 +28615,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.539566541194046e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-2.108000729802126e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>245.9534379510231</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303323</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>321.2237252606066</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35820,10 +35820,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586608</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556548</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36057,10 +36057,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>334.5577682773024</v>
+        <v>429.2814066296109</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187473</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>334.5577682773024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412286</v>
+        <v>67.71102679412247</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491602</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043209</v>
+        <v>94.4289566004317</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>334.5577682773024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>334.5577682773024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
